--- a/methodes necessaires/methodes_xue.xlsx
+++ b/methodes necessaires/methodes_xue.xlsx
@@ -102,6 +102,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Xue CAO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ArrayList&lt;Favoris&gt; liste = FavorisManager.getFavorisByMemberId(1);</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C8" authorId="0">
       <text>
         <r>
@@ -153,6 +177,249 @@
         </r>
       </text>
     </comment>
+    <comment ref="B16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Xue CAO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+  ArrayList&lt;Categorie&gt; list = CategorieManager.getListeCategories();
+  for(Categorie c : list){
+   System.out.println(c);
+  }</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Xue CAO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+  ArrayList&lt;HairColor&gt; list = HairColorManager.getListeHairColors();
+  for(HairColor c : list){
+   System.out.println(c);
+  }</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Xue CAO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+  ArrayList&lt;SkinColor&gt; list = SkinColorManager.getListeSkinColors();
+  for(SkinColor c : list){
+   System.out.println(c);
+  }</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Xue CAO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+  ArrayList&lt;EyeColor&gt; list = EyeColorManager.getListeEyeColors();
+  for(EyeColor c : list){
+   System.out.println(c);
+  }</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Xue CAO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+  ArrayList&lt;HeightRange&gt; list = HeightRangeManager.getListeHeightRanges();
+  for(HeightRange c : list){
+   System.out.println(c);
+  }</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Xue CAO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+  ArrayList&lt;WeightRange&gt; list = WeightRangeManager.getListeWeightRanges();
+  for(WeightRange c : list){
+   System.out.println(c);
+  }</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Xue CAO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+  ArrayList&lt;City&gt; list = CityManager.getListeCities();
+  for(City c : list){
+   System.out.println(c);
+  }</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Xue CAO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+  ArrayList&lt;Hobby&gt; list = HobbyManager.getListeHobbies();
+  for(Hobby c : list){
+   System.out.println(c);
+  }</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Xue CAO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+  ArrayList&lt;Status&gt; list = StatusManager.getListeStatus();
+  for(Status c : list){
+   System.out.println(c);
+  }</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C29" authorId="0">
       <text>
         <r>
@@ -225,6 +492,56 @@
           </rPr>
           <t xml:space="preserve">
 FavorisManager.addFavoris(new Date(), 23, 30)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Xue CAO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+  Categorie c = CategorieManager.getCategorieById(1);
+   System.out.println(c);</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B38" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Xue CAO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+  HairColor c = HairColorManager.getListeHairColorById(1);
+   System.out.println(c);</t>
         </r>
       </text>
     </comment>
@@ -257,7 +574,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>Profile.xhtml:</t>
   </si>
@@ -280,9 +597,6 @@
     <t xml:space="preserve">6- liste des favoris =  </t>
   </si>
   <si>
-    <t>FavorisManager.getListeFavoris(membre.getMembreId());</t>
-  </si>
-  <si>
     <t>7- liste clin d'oiel par user id Clin=</t>
   </si>
   <si>
@@ -310,9 +624,6 @@
     <t>20-liste de users par attributs de la recherche(criteria)</t>
   </si>
   <si>
-    <t>21- CategorieManager.getCategorieByID(categorie);</t>
-  </si>
-  <si>
     <t>22- HairColorManager.getHairColorById(hairColor_id);</t>
   </si>
   <si>
@@ -337,57 +648,30 @@
     <t xml:space="preserve">9- liste de categories = </t>
   </si>
   <si>
-    <t>CategorieManager.getListeCategories();</t>
-  </si>
-  <si>
     <t>10- liste de hair colors =</t>
   </si>
   <si>
-    <t xml:space="preserve"> HairColorManager.getListeHairColors();</t>
-  </si>
-  <si>
     <t xml:space="preserve">11- liste de skin color= </t>
   </si>
   <si>
-    <t>SkinColorManager.getListeSkinColors();</t>
-  </si>
-  <si>
     <t xml:space="preserve">12- liste de eye color= </t>
   </si>
   <si>
-    <t>EyeColorManager.getListeEyeColors();</t>
-  </si>
-  <si>
     <t>13- liste de height range =</t>
   </si>
   <si>
-    <t xml:space="preserve"> HeightRangeManager.getListeHeightRanges();</t>
-  </si>
-  <si>
     <t xml:space="preserve">14- liste de weight range = </t>
   </si>
   <si>
-    <t>WeightRangeManager.getListeWeightRanges();</t>
-  </si>
-  <si>
     <t xml:space="preserve">15- liste de villes= </t>
   </si>
   <si>
-    <t>CityManager.getListeCities();</t>
-  </si>
-  <si>
     <t xml:space="preserve">16- liste de hobbies = </t>
   </si>
   <si>
-    <t>HobbyManager.getListeHobbies();</t>
-  </si>
-  <si>
     <t>17- liste de status =</t>
   </si>
   <si>
-    <t xml:space="preserve"> StatusManager.getListeStatus();  </t>
-  </si>
-  <si>
     <t>MembreManager.supprimerMembre(Membre m)</t>
   </si>
   <si>
@@ -446,13 +730,64 @@
   </si>
   <si>
     <t>j'ai besoin tous les criteres de recherche</t>
+  </si>
+  <si>
+    <t>public static ArrayList&lt;Categorie&gt; getListeCategories()</t>
+  </si>
+  <si>
+    <t>public static ArrayList&lt;HairColor&gt; getListeHairColors()</t>
+  </si>
+  <si>
+    <t>public static ArrayList&lt;SkinColor&gt; getListeSkinColors()</t>
+  </si>
+  <si>
+    <t>public static ArrayList&lt;EyeColor&gt; getListeEyeColors()</t>
+  </si>
+  <si>
+    <t>public static ArrayList&lt;HeightRange&gt; getListeHeightRanges()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public static ArrayList&lt;WeightRange&gt; getListeWeightRanges()</t>
+  </si>
+  <si>
+    <t>public static ArrayList&lt;City&gt; getListeCities()</t>
+  </si>
+  <si>
+    <t>public static ArrayList&lt;Hobby&gt; getListeHobbies()</t>
+  </si>
+  <si>
+    <t>public static ArrayList&lt;Status&gt; getListeStatus()</t>
+  </si>
+  <si>
+    <t>21- CategorieManager.getCategorieById(categorie);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public static Categorie getCategorieById(int id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public static HairColor  getListeHairColorById(int id)</t>
+  </si>
+  <si>
+    <t>public static SkinColor getListeSkinColorById(int id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public static EyeColor getListeEyeColorById(int id)</t>
+  </si>
+  <si>
+    <t>public static WeightRange getWeightRangeById(int id)</t>
+  </si>
+  <si>
+    <t>public static City getCityById(int i)</t>
+  </si>
+  <si>
+    <t>public static Status getStatusById(int i)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,13 +814,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -524,9 +852,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,13 +1151,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="49.5703125" customWidth="1"/>
+    <col min="1" max="1" width="66.5703125" customWidth="1"/>
     <col min="2" max="2" width="79" customWidth="1"/>
     <col min="3" max="3" width="78.85546875" customWidth="1"/>
     <col min="4" max="4" width="64.28515625" customWidth="1"/>
@@ -841,278 +1169,302 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>24</v>
+      <c r="A7" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75">
-      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="B28" t="s">
-        <v>60</v>
+      <c r="B28" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>61</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="B44" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>62</v>
+        <v>34</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/methodes necessaires/methodes_xue.xlsx
+++ b/methodes necessaires/methodes_xue.xlsx
@@ -574,7 +574,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
   <si>
     <t>Profile.xhtml:</t>
   </si>
@@ -781,6 +781,9 @@
   </si>
   <si>
     <t>public static Status getStatusById(int i)</t>
+  </si>
+  <si>
+    <t>public static ArrayList&lt;Hobby&gt; getListeHobbiesByMembreId(int id)</t>
   </si>
 </sst>
 </file>
@@ -1151,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1329,6 +1332,9 @@
       </c>
       <c r="B23" s="1" t="s">
         <v>59</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:3">

--- a/methodes necessaires/methodes_xue.xlsx
+++ b/methodes necessaires/methodes_xue.xlsx
@@ -1154,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
